--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>Who</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>10 + 2 + 1</t>
+  </si>
+  <si>
+    <t>produce json</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,7 +674,7 @@
     <col min="6" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -717,7 +720,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -736,8 +739,14 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -757,10 +766,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -777,7 +786,7 @@
         <v>201400404</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -794,7 +803,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -811,10 +820,10 @@
         <v>200404</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -833,7 +842,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -850,7 +859,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -867,7 +876,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -884,7 +893,7 @@
         <v>201400404</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -901,7 +910,7 @@
         <v>200404</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -918,7 +927,7 @@
         <v>204400404</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
   <si>
     <t>Who</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>produce json</t>
+  </si>
+  <si>
+    <t>4 + 4</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,6 +768,9 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>Who</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>4 + 4</t>
+  </si>
+  <si>
+    <t>5 + 1 + 1</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,6 +794,12 @@
       <c r="E6" s="2">
         <v>201400404</v>
       </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -808,6 +817,9 @@
       <c r="E7" s="2">
         <v>200</v>
       </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -824,6 +836,9 @@
       </c>
       <c r="E8" s="2">
         <v>200404</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
   <si>
     <t>Who</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>5 + 1 + 1</t>
+  </si>
+  <si>
+    <t>refactor 30</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,6 +803,9 @@
       <c r="G6" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
   <si>
     <t>Who</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>refactor 30</t>
+  </si>
+  <si>
+    <t>1 + 1</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,6 +829,9 @@
       <c r="F7" s="1">
         <v>5</v>
       </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -845,6 +851,9 @@
       </c>
       <c r="F8" s="1">
         <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>Who</t>
   </si>
@@ -89,27 +89,15 @@
     <t>/products/{pid}</t>
   </si>
   <si>
-    <t>/numbers</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
-    <t>user wants to view all phone numbers of the user</t>
-  </si>
-  <si>
     <t>/numbers/{nid}</t>
   </si>
   <si>
-    <t>user wants to view phone number of user</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
-    <t>other user wants to view phone number</t>
-  </si>
-  <si>
     <t>/numbers/{nid}/purchases</t>
   </si>
   <si>
@@ -285,6 +273,12 @@
   </si>
   <si>
     <t>1 + 1</t>
+  </si>
+  <si>
+    <t>user wants to view summary of a number</t>
+  </si>
+  <si>
+    <t>other user wants to view summary of a number</t>
   </si>
 </sst>
 </file>
@@ -671,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -755,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -778,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -804,10 +798,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -853,148 +847,160 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2">
         <v>200</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
-        <v>200</v>
+        <v>404</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2">
-        <v>404</v>
+        <v>201400404</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2">
-        <v>201400404</v>
+        <v>200404</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
-        <v>200404</v>
+        <v>204400404</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>200404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2">
-        <v>204400404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2">
-        <v>200404</v>
-      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="6">
+        <v>200404</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" s="6">
         <v>200404</v>
@@ -1004,71 +1010,71 @@
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="6">
-        <v>200404</v>
+        <v>201400404</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2">
         <v>201400404</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2">
-        <v>201400404</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4">
+        <v>200404</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4">
         <v>200404</v>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>30</v>
@@ -1087,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="4">
         <v>200404</v>
@@ -1095,54 +1101,54 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E25" s="2">
+        <v>201400404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="4">
-        <v>200404</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="2">
-        <v>201400404</v>
-      </c>
+      <c r="E26" s="8">
+        <v>200404</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="E27" s="8">
         <v>200404</v>
@@ -1150,98 +1156,98 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="8">
-        <v>200404</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2">
-        <v>200404</v>
-      </c>
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2">
+        <v>200404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="6">
+        <v>200404</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="6">
-        <v>200404</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="6"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2">
         <v>201400404</v>
       </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="4">
+        <v>200404</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E34" s="4">
         <v>200404</v>
@@ -1251,93 +1257,93 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="4">
-        <v>200404</v>
+        <v>201400404</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E36" s="4">
-        <v>201400404</v>
+        <v>200404</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="4">
-        <v>200404</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2">
         <v>201400404</v>
       </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="4">
+        <v>200404</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E40" s="4">
         <v>200404</v>
@@ -1347,93 +1353,93 @@
     </row>
     <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E41" s="4">
-        <v>200404</v>
+        <v>201400404</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E42" s="4">
-        <v>201400404</v>
+        <v>200404</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="4">
-        <v>200404</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2">
         <v>201400404</v>
       </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="4">
+        <v>200404</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E46" s="4">
         <v>200404</v>
@@ -1443,60 +1449,41 @@
     </row>
     <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E47" s="4">
-        <v>200404</v>
+        <v>201400404</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E48" s="4">
-        <v>201400404</v>
+        <v>200404</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="4">
-        <v>200404</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>Who</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>other user wants to view summary of a number</t>
+  </si>
+  <si>
+    <t>refactor 10</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,23 +901,28 @@
       <c r="G11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>201400404</v>
       </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -932,23 +940,31 @@
       <c r="E13" s="2">
         <v>200404</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>204400404</v>
       </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,9 @@
       <c r="E19" s="6">
         <v>201400404</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10">
+        <v>10</v>
+      </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,6 +1060,9 @@
       </c>
       <c r="E20" s="2">
         <v>201400404</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -671,7 +671,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1043,9 @@
       <c r="F19" s="10">
         <v>10</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1063,6 +1065,9 @@
       </c>
       <c r="F20" s="1">
         <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -671,7 +671,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,6 +985,12 @@
       <c r="E16" s="2">
         <v>200404</v>
       </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
   <si>
     <t>Who</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>/numbers/{nid}/purchases/{pid}</t>
-  </si>
-  <si>
-    <t>view a puchase on a number</t>
   </si>
   <si>
     <t>/numbers/{nid}/purchases/{pid}/refill</t>
@@ -671,14 +668,14 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
   </cols>
@@ -726,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -752,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -775,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -801,10 +798,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
         <v>80</v>
-      </c>
-      <c r="H6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -850,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -867,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2">
         <v>200</v>
@@ -890,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2">
         <v>404</v>
@@ -902,7 +899,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1003,32 +1000,40 @@
         <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E17" s="6">
         <v>200404</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="10">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E18" s="6">
         <v>200404</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="10">
+        <v>15</v>
+      </c>
+      <c r="G18" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -1047,7 +1052,7 @@
         <v>201400404</v>
       </c>
       <c r="F19" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="10">
         <v>16</v>
@@ -1213,13 +1218,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E30" s="6">
         <v>200404</v>

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>Who</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>refactor 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 + </t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,6 +1157,12 @@
       <c r="E25" s="2">
         <v>201400404</v>
       </c>
+      <c r="F25" s="1">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
@@ -1171,8 +1180,12 @@
       <c r="E26" s="8">
         <v>200404</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
@@ -1190,8 +1203,12 @@
       <c r="E27" s="8">
         <v>200404</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E28" s="2"/>

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>Who</t>
   </si>
@@ -281,7 +281,10 @@
     <t>refactor 10</t>
   </si>
   <si>
-    <t xml:space="preserve">12 + </t>
+    <t>12 + 1 + 1</t>
+  </si>
+  <si>
+    <t>17 + 2 + 2</t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,6 +1273,12 @@
       <c r="E32" s="2">
         <v>201400404</v>
       </c>
+      <c r="F32" s="1">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1375,6 +1375,12 @@
       <c r="E38" s="2">
         <v>201400404</v>
       </c>
+      <c r="F38" s="1">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -1470,6 +1476,12 @@
       </c>
       <c r="E44" s="2">
         <v>201400404</v>
+      </c>
+      <c r="F44" s="1">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,6 +1232,12 @@
       <c r="E29" s="2">
         <v>200404</v>
       </c>
+      <c r="F29" s="1">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -1249,8 +1255,12 @@
       <c r="E30" s="6">
         <v>200404</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="F30" s="10">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E31" s="6"/>

--- a/api/mobile/modelling/mobile3.xlsx
+++ b/api/mobile/modelling/mobile3.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="112" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
